--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2631207.708699397</v>
+        <v>-2634773.210572946</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892727</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15203659.1365575</v>
+        <v>15200119.26021499</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>71.86954418429146</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>341.2441104515441</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -738,19 +738,19 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0.8993789887410764</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>68.76350334275874</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>19.11752326462476</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>114.7398479781407</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>335.2122228055279</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>160.854299985397</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>73.09177164960406</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>96.52485201226882</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.4220676135228</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2.985676702963014</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>394.8613934036369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1199,7 +1199,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>226.8653251659286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.0363847091458</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>157.854637904103</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
-        <v>40.13905097439016</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>30.7960431802619</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>61.90785314716779</v>
       </c>
       <c r="G13" t="n">
-        <v>40.78297506860786</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>117.8545206798373</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>106.4741046921188</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362804</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>61.75483670877657</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993877</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.9984695717785</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>40.78297506860786</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456099</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901691</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1819,19 +1819,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.506091445786</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697374</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277517</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541626</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
         <v>208.3257718879324</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2555,25 @@
         <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D26" t="n">
-        <v>287.5954430211825</v>
+        <v>287.5954430211826</v>
       </c>
       <c r="E26" t="n">
         <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G26" t="n">
-        <v>315.0398534825604</v>
+        <v>315.0398534825605</v>
       </c>
       <c r="H26" t="n">
-        <v>226.8509454548578</v>
+        <v>226.8509454548579</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414345</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404357</v>
       </c>
       <c r="T26" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954307</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292003</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070791</v>
       </c>
       <c r="X26" t="n">
-        <v>291.5668045419573</v>
+        <v>291.5668045419574</v>
       </c>
       <c r="Y26" t="n">
         <v>298.5345275142885</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007189</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803543</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219403</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507314</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.7614009648404</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723254</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380458</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497651</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943243</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2767,19 +2767,19 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530677</v>
       </c>
       <c r="W28" t="n">
-        <v>186.5058235738177</v>
+        <v>186.5058235738178</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205304</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.8896660972066</v>
+        <v>126.8896660972067</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404374</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954312</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943231</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815732</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.463826709389</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227893</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619112</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126123</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841672</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564646</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838887</v>
+        <v>24.17382596575015</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828899</v>
+        <v>52.06849973565028</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434678</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970377</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308071</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086857</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435641</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158952</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431732</v>
+        <v>70.5760187316786</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459972</v>
+        <v>55.72314698196101</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643945</v>
+        <v>41.29686219380073</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931856</v>
+        <v>41.22330424667985</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908583</v>
+        <v>42.97275566644711</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147796</v>
+        <v>53.79159358883925</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805001</v>
+        <v>41.14384575541129</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922194</v>
+        <v>18.98356133658322</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367785</v>
+        <v>9.88205970103914</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920517</v>
+        <v>88.00800320656646</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407385</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678084</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546743</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754245</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221371</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988134</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
@@ -3272,7 +3272,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3284,7 +3284,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
@@ -3490,7 +3490,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541621</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
         <v>208.3257718879324</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541626</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277517</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541635</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1042.167257230337</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="C2" t="n">
-        <v>648.9917557332672</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="D2" t="n">
-        <v>263.5506269499349</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="E2" t="n">
-        <v>263.5506269499349</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="F2" t="n">
-        <v>190.9551277738829</v>
+        <v>917.08616960938</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>503.9234140973831</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633853</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633853</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475496</v>
+        <v>114.5970879866906</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132837</v>
+        <v>607.9173797052194</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354871</v>
+        <v>1121.520058314909</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572949</v>
+        <v>1635.122736924598</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465278</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596799</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678799</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238215</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="U2" t="n">
-        <v>1784.768812238215</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="V2" t="n">
-        <v>1442.662002941734</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="W2" t="n">
-        <v>1442.662002941734</v>
+        <v>1730.471317158801</v>
       </c>
       <c r="X2" t="n">
-        <v>1442.662002941734</v>
+        <v>1730.471317158801</v>
       </c>
       <c r="Y2" t="n">
-        <v>1442.662002941734</v>
+        <v>1333.980608079402</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021429</v>
+        <v>691.1234630814527</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622351</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837154</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>305.6121358991106</v>
+        <v>423.6795411888298</v>
       </c>
       <c r="F3" t="n">
-        <v>181.1803297822424</v>
+        <v>299.2477350719616</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284337</v>
+        <v>90.89050074442694</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633853</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475496</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475496</v>
+        <v>474.3573750382924</v>
       </c>
       <c r="L3" t="n">
-        <v>43.49565939475496</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>581.7544444048475</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875479</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.79650946646</v>
+        <v>1435.175877545639</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182857</v>
+        <v>1840.797246262036</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.245294714991</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535681</v>
+        <v>2051.245294714991</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1874.261482913899</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413231</v>
+        <v>1664.198339592541</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784298</v>
+        <v>1441.658337963608</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917585</v>
+        <v>1211.541092096895</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675969</v>
+        <v>1022.234014446907</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431042</v>
+        <v>842.919797522414</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475496</v>
+        <v>198.8291815433656</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475496</v>
+        <v>198.8291815433656</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475496</v>
+        <v>198.8291815433656</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475496</v>
+        <v>198.8291815433656</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633853</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633853</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633853</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633853</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633853</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400802</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783442</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>382.5065569196679</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U4" t="n">
-        <v>382.5065569196679</v>
+        <v>707.231217466125</v>
       </c>
       <c r="V4" t="n">
-        <v>382.5065569196679</v>
+        <v>441.2518722869493</v>
       </c>
       <c r="W4" t="n">
-        <v>382.5065569196679</v>
+        <v>441.2518722869493</v>
       </c>
       <c r="X4" t="n">
-        <v>266.6077205781116</v>
+        <v>441.2518722869493</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475496</v>
+        <v>218.1398111035926</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>759.4637545949109</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="C5" t="n">
-        <v>366.2882530978415</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="D5" t="n">
-        <v>366.2882530978415</v>
+        <v>1736.564132962858</v>
       </c>
       <c r="E5" t="n">
-        <v>366.2882530978415</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="F5" t="n">
-        <v>353.4342186682233</v>
+        <v>917.08616960938</v>
       </c>
       <c r="G5" t="n">
-        <v>344.3118671966305</v>
+        <v>503.9234140973831</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633853</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633853</v>
       </c>
       <c r="K5" t="n">
-        <v>135.6402479253945</v>
+        <v>41.50324675633853</v>
       </c>
       <c r="L5" t="n">
-        <v>135.6402479253945</v>
+        <v>534.8235384748674</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354871</v>
+        <v>1048.426217084557</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572949</v>
+        <v>1542.129285544456</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>1542.129285544456</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596799</v>
+        <v>1890.316777675978</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.79005602327</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.27650096432</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523737</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958336</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="V5" t="n">
-        <v>1148.916359661854</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="W5" t="n">
-        <v>1148.916359661854</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="X5" t="n">
-        <v>759.4637545949109</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="Y5" t="n">
-        <v>759.4637545949109</v>
+        <v>2075.162337816927</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021429</v>
+        <v>556.1927859813215</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622351</v>
+        <v>405.5385555414138</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837154</v>
+        <v>275.4495881628941</v>
       </c>
       <c r="E6" t="n">
-        <v>301.240147710378</v>
+        <v>139.0030972737818</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633853</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633853</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284337</v>
+        <v>41.50324675633853</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633853</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475496</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475496</v>
+        <v>158.7695259828373</v>
       </c>
       <c r="L6" t="n">
-        <v>480.0174418653862</v>
+        <v>642.3356118811505</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653862</v>
+        <v>1155.93829049084</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875479</v>
+        <v>1155.93829049084</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.79650946646</v>
+        <v>1669.540969100529</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182857</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816927</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.245294714991</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535681</v>
+        <v>1916.31461761486</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813768</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413231</v>
+        <v>1529.26766249241</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784298</v>
+        <v>1306.727660863477</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917585</v>
+        <v>1076.610414996764</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675969</v>
+        <v>887.3033373467756</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431042</v>
+        <v>707.9891204222829</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475496</v>
+        <v>491.7629054274139</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475496</v>
+        <v>491.7629054274139</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475496</v>
+        <v>491.7629054274139</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475496</v>
+        <v>491.7629054274139</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475496</v>
+        <v>491.7629054274139</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475496</v>
+        <v>323.5088515268594</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475496</v>
+        <v>174.5976721192607</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633853</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633853</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400802</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783442</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>818.0258575153864</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>532.5870657572873</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>266.6077205781116</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="W7" t="n">
-        <v>266.6077205781116</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="X7" t="n">
-        <v>266.6077205781116</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475496</v>
+        <v>676.9709241187152</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>611.6668769506938</v>
+        <v>921.4370641991123</v>
       </c>
       <c r="C8" t="n">
-        <v>611.6668769506938</v>
+        <v>921.4370641991123</v>
       </c>
       <c r="D8" t="n">
-        <v>611.6668769506938</v>
+        <v>921.4370641991123</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506938</v>
+        <v>921.4370641991123</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>908.5830297694941</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4805,49 +4805,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>1943.38222045283</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1601.275411156348</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>1230.276376124636</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="X8" t="n">
-        <v>840.8237710576924</v>
+        <v>921.4370641991123</v>
       </c>
       <c r="Y8" t="n">
-        <v>611.6668769506938</v>
+        <v>921.4370641991123</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>380.9907835723745</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>100.8850758683575</v>
+        <v>789.3108634470325</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.8850758683575</v>
+        <v>566.1988022636758</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1135.01579512446</v>
+        <v>1439.569462514561</v>
       </c>
       <c r="C11" t="n">
-        <v>813.636568773584</v>
+        <v>1118.190236163685</v>
       </c>
       <c r="D11" t="n">
-        <v>499.9917151364457</v>
+        <v>804.5453825265467</v>
       </c>
       <c r="E11" t="n">
-        <v>169.2044653991843</v>
+        <v>473.7581327892854</v>
       </c>
       <c r="F11" t="n">
-        <v>169.2044653991843</v>
+        <v>128.659969465457</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2980.131990969524</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2709.821456819237</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2410.618696933718</v>
       </c>
       <c r="X11" t="n">
-        <v>1788.408699622868</v>
+        <v>2092.962367012969</v>
       </c>
       <c r="Y11" t="n">
-        <v>1463.714265689663</v>
+        <v>1768.267933079764</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.3140520158406</v>
+        <v>368.0415815981119</v>
       </c>
       <c r="C13" t="n">
-        <v>103.3140520158406</v>
+        <v>269.632738810295</v>
       </c>
       <c r="D13" t="n">
-        <v>103.3140520158406</v>
+        <v>269.632738810295</v>
       </c>
       <c r="E13" t="n">
-        <v>103.3140520158406</v>
+        <v>269.632738810295</v>
       </c>
       <c r="F13" t="n">
-        <v>103.3140520158406</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L13" t="n">
         <v>489.4106539027737</v>
@@ -5221,7 +5221,7 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
         <v>1313.608118922022</v>
@@ -5230,19 +5230,19 @@
         <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245443</v>
+        <v>936.0428256245447</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915624</v>
+        <v>741.8597555915628</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689339</v>
+        <v>530.3256286689343</v>
       </c>
       <c r="X13" t="n">
-        <v>368.0415815981108</v>
+        <v>368.0415815981119</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.7257955609481</v>
+        <v>368.0415815981119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1135.01579512446</v>
+        <v>1888.485543579474</v>
       </c>
       <c r="C14" t="n">
-        <v>813.6365687735845</v>
+        <v>1567.106317228599</v>
       </c>
       <c r="D14" t="n">
-        <v>499.9917151364461</v>
+        <v>1253.46146359146</v>
       </c>
       <c r="E14" t="n">
-        <v>380.9467447527723</v>
+        <v>922.6742138541981</v>
       </c>
       <c r="F14" t="n">
-        <v>380.9467447527723</v>
+        <v>577.5760505303697</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527723</v>
+        <v>236.2095701645667</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543618</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="X14" t="n">
-        <v>1788.408699622868</v>
+        <v>2541.878448077882</v>
       </c>
       <c r="Y14" t="n">
-        <v>1463.714265689663</v>
+        <v>2217.184014144677</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.3140520158406</v>
+        <v>305.6629586599522</v>
       </c>
       <c r="C16" t="n">
-        <v>103.3140520158406</v>
+        <v>207.2541158721352</v>
       </c>
       <c r="D16" t="n">
-        <v>103.3140520158406</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="E16" t="n">
-        <v>103.3140520158406</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="F16" t="n">
-        <v>103.3140520158406</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
         <v>746.069761511822</v>
@@ -5470,16 +5470,16 @@
         <v>936.042825624544</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915621</v>
+        <v>741.859755591562</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689336</v>
+        <v>530.3256286689335</v>
       </c>
       <c r="X16" t="n">
-        <v>368.0415815981106</v>
+        <v>368.0415815981104</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.7257955609479</v>
+        <v>368.0415815981104</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,10 +5543,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,7 +5555,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5686,13 +5686,13 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P19" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975451</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,25 +5911,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012521</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
         <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6072,10 +6072,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,22 +6151,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6203,46 +6203,46 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.7612945678972</v>
       </c>
       <c r="I26" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>311.0659935859516</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429866</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791088</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1988.523626565242</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>3079.395388107029</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6303,16 +6303,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755026</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985357</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517131</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878069</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746019</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796863</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.707882522574</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904111</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728253</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648018</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117756</v>
       </c>
       <c r="T28" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573178</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.29817721028</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286456</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.768815498817</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026487</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.125737939027</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142185</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,28 +6461,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1888.204925386532</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375469</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6497,16 +6497,16 @@
         <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6540,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>73.36485894755026</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985353</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
         <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
         <v>136.6424780796861</v>
@@ -6625,22 +6625,22 @@
         <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918592</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303047</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.02046740124</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993093</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.380725810812</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803401</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835545</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234519</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111733</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041217</v>
+        <v>571.1872645386352</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3139.085431055613</v>
+        <v>3149.851074113022</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923632</v>
+        <v>3377.756780117259</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117259</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939835</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380776</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.7472256969</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281943</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131756</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946338</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748464</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898327</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234519</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076161</v>
+        <v>180.6701178220726</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076161</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>69.54754824076161</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965126</v>
+        <v>365.6713676929739</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918664</v>
+        <v>309.3853606404881</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237458</v>
+        <v>267.6713584245277</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652552</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546504</v>
+        <v>182.624833259753</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407235</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431912</v>
+        <v>86.73045008374238</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234519</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234519</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>149.3901767122871</v>
       </c>
       <c r="L34" t="n">
-        <v>409.536903280551</v>
+        <v>313.5178165860868</v>
       </c>
       <c r="M34" t="n">
-        <v>595.828481618815</v>
+        <v>499.8093949243508</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770944</v>
+        <v>794.6511495305426</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145873</v>
+        <v>1033.381832577066</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649522</v>
+        <v>1264.910118928628</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873661</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387763</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451837</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501596</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250224</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395514</v>
+        <v>835.7257283273715</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000937</v>
+        <v>666.314437140074</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124415</v>
+        <v>546.153225804582</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584494</v>
+        <v>436.9602755027503</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
         <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924216</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6953,7 +6953,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6962,13 +6962,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -6977,7 +6977,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7011,19 +7011,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411552</v>
+        <v>67.69877031229882</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862326</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162811</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7157,25 +7157,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924221</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358934</v>
@@ -7190,7 +7190,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7202,13 +7202,13 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411552</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072671</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462916</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960409</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655142</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974522</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7394,19 +7394,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924213</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7433,25 +7433,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7473,10 +7473,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F42" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G42" t="n">
         <v>199.803798091603</v>
@@ -7485,19 +7485,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411551</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411551</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588724</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072653</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462906</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655128</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>845.847430707221</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106228</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924213</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404052</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
         <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
         <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7710,10 +7710,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
         <v>199.803798091603</v>
@@ -7722,19 +7722,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411551</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411551</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588724</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072653</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462906</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
         <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214671</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>216.8905660381789</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>288.1928110140942</v>
+        <v>668.5156360519588</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920158</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837488</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>526.3032062588447</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>574.7607069788212</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8216,19 +8216,19 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>236.1337451293783</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519588</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>647.8084594790967</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>93.79016463310236</v>
       </c>
       <c r="L6" t="n">
-        <v>530.9914402615963</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>611.1777065035435</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886036</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431206</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,10 +8453,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>234.9862648617782</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581658</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8766,19 +8766,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9003,16 +9003,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>262.1075997502998</v>
       </c>
       <c r="L15" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9021,7 +9021,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>278.2539578070002</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>115.0989755892052</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9720,13 +9720,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>166.3231752016895</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>603.549567405683</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>603.549567405683</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>603.5495674056833</v>
+        <v>340.2745745069886</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>115.0989755892052</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>429.0180294423952</v>
       </c>
       <c r="M39" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>624.8237719316268</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>297.8137645877547</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>151.3208466947533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>22.76650989725681</v>
       </c>
       <c r="G13" t="n">
-        <v>54.71022589820912</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>209.6248565600516</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>143.2898028423236</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>50.5227894008799</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>82.92491162465761</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442488</v>
       </c>
       <c r="G16" t="n">
-        <v>54.71022589820912</v>
+        <v>95.49320096681701</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>82.84545313338906</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1327543.456043066</v>
+        <v>1325738.813201785</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1327543.456043066</v>
+        <v>1325738.813201785</v>
       </c>
     </row>
     <row r="4">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.6570340555</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062197</v>
+        <v>22558.42953401315</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668196</v>
+        <v>47425.32553668201</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399296</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728556</v>
+        <v>62456.24177539657</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962303</v>
+        <v>43252.52447081108</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277126</v>
+        <v>27767.69404277113</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138793</v>
+        <v>237331.8440488213</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138793</v>
+        <v>237331.8440488213</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
-        <v>151510.2534766781</v>
+        <v>151510.2534766782</v>
       </c>
       <c r="F4" t="n">
         <v>151510.2534766781</v>
@@ -26445,7 +26445,7 @@
         <v>200019.6624326434</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.0885321601</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481728</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481728</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173849</v>
+        <v>60823.19813315427</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-481313.5620457489</v>
+        <v>-476360.5686176941</v>
       </c>
       <c r="C6" t="n">
-        <v>-299108.6137538931</v>
+        <v>-302501.9115836386</v>
       </c>
       <c r="D6" t="n">
-        <v>-307429.4541394626</v>
+        <v>-315165.7433628538</v>
       </c>
       <c r="E6" t="n">
-        <v>-316818.8346505631</v>
+        <v>-317028.5661972528</v>
       </c>
       <c r="F6" t="n">
-        <v>-204696.2731765186</v>
+        <v>-204906.0047232081</v>
       </c>
       <c r="G6" t="n">
-        <v>-304864.2648204619</v>
+        <v>-304864.264820462</v>
       </c>
       <c r="H6" t="n">
-        <v>-257438.9392837799</v>
+        <v>-257438.93928378</v>
       </c>
       <c r="I6" t="n">
-        <v>-257438.9392837799</v>
+        <v>-257438.93928378</v>
       </c>
       <c r="J6" t="n">
-        <v>-470480.8568810655</v>
+        <v>-463964.5717264925</v>
       </c>
       <c r="K6" t="n">
         <v>-263678.707686563</v>
       </c>
       <c r="L6" t="n">
-        <v>-318861.2966211841</v>
+        <v>-322910.1338316561</v>
       </c>
       <c r="M6" t="n">
-        <v>-299639.768743403</v>
+        <v>-300691.4637545911</v>
       </c>
       <c r="N6" t="n">
+        <v>-257438.93928378</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-285206.6333265511</v>
+      </c>
+      <c r="P6" t="n">
         <v>-257438.9392837799</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-285206.6333265512</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-257438.93928378</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542316</v>
       </c>
       <c r="C4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542316</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26817,19 +26817,19 @@
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095202</v>
+        <v>844.4391950293149</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085251</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346394</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660695</v>
+        <v>78.07030221924572</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551349</v>
+        <v>17.58004954287475</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346407</v>
+        <v>34.70961755346391</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542316</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485811</v>
+        <v>72.62154181506344</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773712</v>
+        <v>659.3622249971659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407277</v>
+        <v>117.126871304278</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085251</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346394</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542316</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485811</v>
+        <v>72.62154181506344</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>340.8559499010306</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>26.04493422985132</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,19 +27458,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>148.2483091467676</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>66.31852263746241</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>164.2384152397635</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27546,7 +27546,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>116.999671016706</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>46.37449468997102</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>159.9879199437773</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27701,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>61.99025433061709</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>26.66263604343069</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27786,13 +27786,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>6.501697914598196</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>230.3761846104852</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>14.16973455323995</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>165.6604768226763</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.3195537952425</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28029,10 +28029,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>73.88488109074376</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="17">
@@ -28758,16 +28758,16 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634528481</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28983,7 +28983,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28995,16 +28995,16 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5.636002634529005</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29223,10 +29223,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>5.636002634528637</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>30.27223765901329</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901266</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431665</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431891</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431637</v>
       </c>
     </row>
     <row r="29">
@@ -29533,31 +29533,31 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="M29" t="n">
-        <v>86.65052755599584</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>43.49509683160485</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196566546</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29934,46 +29934,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>94.97643844045223</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455031897</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727097</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668765</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30177,10 +30177,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O37" t="n">
-        <v>128.2979821082769</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30405,10 +30405,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733236</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -30651,40 +30651,40 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>5.636002634527784</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30891,10 +30891,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P46" t="n">
-        <v>5.636002634527685</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>73.83216285894149</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>138.467759416367</v>
+        <v>518.7905844542316</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542316</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.695742434437</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>440.9310934046781</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>482.0731480899323</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>93.07534195014098</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542316</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>498.6899681413126</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>4.19322929976902</v>
       </c>
       <c r="L6" t="n">
-        <v>440.9310934046781</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>518.7905844542316</v>
       </c>
       <c r="N6" t="n">
-        <v>543.695742434437</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542316</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>144.92591800486</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088539</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35741,7 +35741,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257283</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488438</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>188.193610950082</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36054,16 +36054,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724866</v>
       </c>
       <c r="Q19" t="n">
-        <v>131.7547461184303</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>22.71185353989332</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>210.9596397950874</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>73.93605315237758</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36519,10 +36519,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565486</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>249.385018246236</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.599714906096</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>592.2945994425273</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>645.5073351254078</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>563.4149484039244</v>
       </c>
       <c r="O26" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201027</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698309</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>511.1624453563711</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215758</v>
+        <v>63.9167870021573</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611263</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963363</v>
       </c>
       <c r="M28" t="n">
-        <v>282.1645859271084</v>
+        <v>282.1645859271083</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492751</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113952</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122771</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446885</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M29" t="n">
-        <v>638.1665882070873</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>511.1624453563711</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37069,7 +37069,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.264365118496</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>464.4844572792974</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>230.207783842664</v>
       </c>
       <c r="R32" t="n">
-        <v>48.65992738833217</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>511.1624453563714</v>
+        <v>247.8874524576767</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37230,22 +37230,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>260.7619332624722</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476685</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371498</v>
+        <v>241.1421040873978</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>233.8669559106678</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>116.2366837828621</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>22.71185353989332</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634528578</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37473,10 +37473,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O37" t="n">
-        <v>292.6462316453558</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835636</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>338.957682585477</v>
       </c>
       <c r="M39" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>88.29766032133901</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37713,7 +37713,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>539.4516590774601</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37947,19 +37947,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>190.6760370094866</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38187,10 +38187,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526633</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P46" t="n">
-        <v>126.7230387724859</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
